--- a/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/cdi_polionpar_ca_1949-55_wk_prov.xlsx
+++ b/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/cdi_polionpar_ca_1949-55_wk_prov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenwalker/Development/iidda-staging/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuqinxian/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680FCA9B-F2DD-8F43-BD45-A4DA97A554D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7586ABA2-A0C6-C645-A87D-2DC124B2C7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21600" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{049284A4-61F2-274B-8B79-43D15BCBD67B}"/>
+    <workbookView xWindow="2720" yWindow="2580" windowWidth="18700" windowHeight="14540" activeTab="4" xr2:uid="{049284A4-61F2-274B-8B79-43D15BCBD67B}"/>
   </bookViews>
   <sheets>
     <sheet name="1949" sheetId="1" r:id="rId1"/>
@@ -48,19 +48,10 @@
   <commentList>
     <comment ref="O9" authorId="0" shapeId="0" xr:uid="{77CB79A7-2781-B341-8CF9-A56335C14061}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -110,36 +101,18 @@
     </comment>
     <comment ref="N48" authorId="1" shapeId="0" xr:uid="{065D4E98-AE67-CC4C-9AB8-8F89120C0275}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
     <comment ref="N52" authorId="2" shapeId="0" xr:uid="{662826AC-BC27-4F4F-A030-D95E6082338E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -160,121 +133,58 @@
   <commentList>
     <comment ref="W37" authorId="0" shapeId="0" xr:uid="{2DA64B14-657C-1F4E-9A48-0FA09C499E72}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
     <comment ref="X43" authorId="1" shapeId="0" xr:uid="{01521A52-7995-3944-9B7F-6B4CF675D865}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
     <comment ref="X44" authorId="2" shapeId="0" xr:uid="{446E0763-0299-7F4E-8CE0-66C0285D5331}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
     <comment ref="X46" authorId="3" shapeId="0" xr:uid="{69757265-EF51-D647-B655-9686B8BD5AB7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
     <comment ref="X52" authorId="4" shapeId="0" xr:uid="{82750EC5-FB15-D646-8058-18D35176321D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
     <comment ref="X54" authorId="5" shapeId="0" xr:uid="{93E1E94C-5F32-024B-A518-F8095A9133C9}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
     <comment ref="V59" authorId="6" shapeId="0" xr:uid="{E11D3E5B-83CA-0040-BD9B-CE4D6626D4F0}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -290,36 +200,18 @@
   <commentList>
     <comment ref="K59" authorId="0" shapeId="0" xr:uid="{9C91A5CB-CB9D-2145-8BB2-F3C3178273D4}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
     <comment ref="Q59" authorId="1" shapeId="0" xr:uid="{4477266C-28AD-C343-A39A-312D68F6EC6E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     unclear</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -327,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="284">
   <si>
     <t>VITAL STATISTICS BRANCH - COMMUNICABLE DISEASE SECTION</t>
   </si>
@@ -2031,7 +1923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4562D0F2-0E80-8645-BA5B-E9A31225DF35}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2039,7 +1933,7 @@
     <col min="3" max="24" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="19">
       <c r="A1" s="1"/>
       <c r="B1" s="25" t="s">
         <v>0</v>
@@ -2068,7 +1962,7 @@
       <c r="X1" s="25"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="19" thickBot="1">
+    <row r="2" spans="1:25" ht="20" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5536,8 +5430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09E637F-4B38-D848-83DF-D8F61C4FD9B0}">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5546,7 +5440,7 @@
     <col min="3" max="24" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="19">
       <c r="A1" s="1"/>
       <c r="B1" s="25" t="s">
         <v>0</v>
@@ -5575,7 +5469,7 @@
       <c r="X1" s="25"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="19" thickBot="1">
+    <row r="2" spans="1:25" ht="20" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -8810,8 +8704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E6CA41-1A65-2C47-BAB1-05724E7289DC}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView topLeftCell="I41" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView topLeftCell="N36" workbookViewId="0">
+      <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8820,7 +8714,7 @@
     <col min="3" max="24" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="19">
       <c r="A1" s="1"/>
       <c r="B1" s="25" t="s">
         <v>0</v>
@@ -8849,7 +8743,7 @@
       <c r="X1" s="25"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="19" thickBot="1">
+    <row r="2" spans="1:25" ht="20" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -12370,7 +12264,7 @@
     <col min="3" max="24" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="19">
       <c r="A1" s="1"/>
       <c r="B1" s="25" t="s">
         <v>0</v>
@@ -12399,7 +12293,7 @@
       <c r="X1" s="25"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="19" thickBot="1">
+    <row r="2" spans="1:25" ht="20" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -15608,8 +15502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B60B6A2-D2C8-054C-89A8-90BDD87FAC42}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="P39" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15618,7 +15512,7 @@
     <col min="3" max="24" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="19">
       <c r="A1" s="1"/>
       <c r="B1" s="25" t="s">
         <v>0</v>
@@ -15647,7 +15541,7 @@
       <c r="X1" s="25"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="19" thickBot="1">
+    <row r="2" spans="1:25" ht="20" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -17349,7 +17243,7 @@
         <v>19</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>164</v>
@@ -19068,8 +18962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEC5AFA-C396-0B4E-A7CA-CBA0BDC8B286}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView topLeftCell="N39" workbookViewId="0">
+      <selection activeCell="O2" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19078,7 +18972,7 @@
     <col min="3" max="24" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="19">
       <c r="A1" s="1"/>
       <c r="B1" s="25" t="s">
         <v>0</v>
@@ -19107,7 +19001,7 @@
       <c r="X1" s="25"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="19" thickBot="1">
+    <row r="2" spans="1:25" ht="20" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -21642,7 +21536,7 @@
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O46" s="10"/>
       <c r="P46" s="11" t="s">
@@ -22047,7 +21941,7 @@
         <v>29</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>25</v>
@@ -22580,8 +22474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0D3DAC-EF58-2647-87FE-CE782C9C9B25}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22590,7 +22484,7 @@
     <col min="3" max="24" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="19">
       <c r="A1" s="1"/>
       <c r="B1" s="25" t="s">
         <v>0</v>
@@ -22619,7 +22513,7 @@
       <c r="X1" s="25"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="19" thickBot="1">
+    <row r="2" spans="1:25" ht="20" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -22880,9 +22774,7 @@
         <v>19</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="O8" s="10"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="10" t="s">
         <v>19</v>
